--- a/images/fabric/Labels.xlsx
+++ b/images/fabric/Labels.xlsx
@@ -93,9 +93,6 @@
     <t>2016</t>
   </si>
   <si>
-    <t>Reptition</t>
-  </si>
-  <si>
     <t>NEU!</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>Dream Boat</t>
+  </si>
+  <si>
+    <t>Recurring</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +539,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -547,7 +547,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -555,7 +555,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -563,7 +563,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -571,7 +571,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -579,7 +579,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -587,7 +587,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -595,7 +595,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -603,7 +603,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -611,7 +611,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
